--- a/src/test/java/com/TestData/DVLAexcel.xlsx
+++ b/src/test/java/com/TestData/DVLAexcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chinthakadayawansha/Desktop/xxll/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chinthakadayawansha/Desktop/QA_course/automationWeb/src/test/java/com/TestData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CFCE623-3635-594E-AA73-0AC3266DF62E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C71B0F-0970-5F41-AF50-EC98264E8E13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440" xr2:uid="{C9EF5217-6612-6F43-ADC0-4A8D0BDA190B}"/>
   </bookViews>
@@ -36,21 +36,6 @@
     <t>Colour</t>
   </si>
   <si>
-    <t>BC04RWZ</t>
-  </si>
-  <si>
-    <t>YX03ZLK</t>
-  </si>
-  <si>
-    <t>LK02SGY</t>
-  </si>
-  <si>
-    <t>KB03ZFZ</t>
-  </si>
-  <si>
-    <t>DS68XFK</t>
-  </si>
-  <si>
     <t>FORD</t>
   </si>
   <si>
@@ -60,9 +45,6 @@
     <t>VAUXHALL</t>
   </si>
   <si>
-    <t>VOLKSWAGAN</t>
-  </si>
-  <si>
     <t>RENAULT</t>
   </si>
   <si>
@@ -73,6 +55,24 @@
   </si>
   <si>
     <t>BLUE</t>
+  </si>
+  <si>
+    <t>BC04 RWZ</t>
+  </si>
+  <si>
+    <t>YX03 ZLK</t>
+  </si>
+  <si>
+    <t>LK02 SGY</t>
+  </si>
+  <si>
+    <t>KB03 ZFZ</t>
+  </si>
+  <si>
+    <t>DS68 XFK</t>
+  </si>
+  <si>
+    <t>VOLKSWAGEN</t>
   </si>
 </sst>
 </file>
@@ -427,12 +427,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="56.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -448,57 +450,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
